--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5C8B9F-AC75-0547-A7BF-D6F61A154440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8547B41A-9BC9-764E-92EB-70BB519ACCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17200" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>clients</t>
   </si>
@@ -87,14 +87,40 @@
   </si>
   <si>
     <t>cifar15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo: </t>
+  </si>
+  <si>
+    <t>Add performance lists to both sets of code</t>
+  </si>
+  <si>
+    <t>Add weight align to fed learning code</t>
+  </si>
+  <si>
+    <t>Add label split to fed learning code</t>
+  </si>
+  <si>
+    <t>Add dataset weighting for weight_align</t>
+  </si>
+  <si>
+    <t>DIFFERENT RANDOM SEEDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,116 +471,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2292B53-1D3E-0E46-9B24-D0A3A204ABAD}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D35"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -561,13 +548,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -575,13 +562,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -589,13 +576,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -603,41 +590,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -645,13 +632,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -659,13 +646,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -673,13 +660,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -687,41 +674,41 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -729,13 +716,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -743,13 +730,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -757,13 +744,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -771,35 +758,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -808,12 +795,12 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -822,12 +809,12 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -836,12 +823,12 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -850,39 +837,109 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8547B41A-9BC9-764E-92EB-70BB519ACCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F684B5-71A2-9044-8029-286F9C8BD951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17200" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="28040" windowHeight="18200" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>clients</t>
   </si>
@@ -59,36 +59,15 @@
     <t>weight_align-central server</t>
   </si>
   <si>
-    <t>weight_align delta 1.5</t>
-  </si>
-  <si>
     <t>homogenous</t>
   </si>
   <si>
     <t>mnist</t>
   </si>
   <si>
-    <t>dir 0.3</t>
-  </si>
-  <si>
     <t>cifar10</t>
   </si>
   <si>
-    <t>cifar11</t>
-  </si>
-  <si>
-    <t>cifar12</t>
-  </si>
-  <si>
-    <t>cifar13</t>
-  </si>
-  <si>
-    <t>cifar14</t>
-  </si>
-  <si>
-    <t>cifar15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Todo: </t>
   </si>
   <si>
@@ -104,7 +83,40 @@
     <t>Add dataset weighting for weight_align</t>
   </si>
   <si>
-    <t>DIFFERENT RANDOM SEEDS</t>
+    <t>DIFFERENT RANDOM SEEDS-how do different methods work?</t>
+  </si>
+  <si>
+    <t>Test on Adam optimization</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>dirichlet 0.3</t>
+  </si>
+  <si>
+    <t>dirichlet 0.4</t>
+  </si>
+  <si>
+    <t>dirichlet 0.5</t>
+  </si>
+  <si>
+    <t>dirichlet 0.6</t>
+  </si>
+  <si>
+    <t>dirichlet 0.7</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>same seed</t>
   </si>
 </sst>
 </file>
@@ -471,70 +483,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2292B53-1D3E-0E46-9B24-D0A3A204ABAD}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -543,12 +558,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -557,12 +578,18 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -571,12 +598,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -585,12 +618,15 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -599,94 +635,107 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
       <c r="B20">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -694,13 +743,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -708,13 +760,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -722,13 +777,16 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -736,13 +794,16 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -750,192 +811,98 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
-      </c>
-      <c r="B27">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
+      <c r="G32" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F684B5-71A2-9044-8029-286F9C8BD951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8651CDA-16B5-504B-A672-22113277FADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="28040" windowHeight="18200" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="28040" windowHeight="18200" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2292B53-1D3E-0E46-9B24-D0A3A204ABAD}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,44 +532,27 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -589,7 +572,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -609,7 +592,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -620,13 +603,16 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -641,35 +627,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -683,13 +666,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -703,16 +686,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -720,41 +706,41 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -771,7 +757,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -788,7 +774,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -805,7 +791,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -820,26 +806,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -856,7 +842,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -873,7 +859,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -890,7 +876,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -902,6 +888,23 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
         <v>26</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8651CDA-16B5-504B-A672-22113277FADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07A6B8-EB18-844E-AE5E-E52ED67EED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="500" windowWidth="28040" windowHeight="18200" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="76300" yWindow="-800" windowWidth="28040" windowHeight="18200" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>clients</t>
   </si>
@@ -117,13 +118,52 @@
   </si>
   <si>
     <t>same seed</t>
+  </si>
+  <si>
+    <t>cifar10_20_dir_p3_se_conv4_kaiming_init</t>
+  </si>
+  <si>
+    <t>config file</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>up to 70% then down to random</t>
+  </si>
+  <si>
+    <t>85% at 324</t>
+  </si>
+  <si>
+    <t>cifar10_20_dir_p3_ae_conv4_default_init</t>
+  </si>
+  <si>
+    <t>tensorboard</t>
+  </si>
+  <si>
+    <t>model_Conv4_n_cli_20_ds_split_dirichlet_ds_alpha_0.3_align_se_delta_None_init_type_kaiming_normal_same_init_True</t>
+  </si>
+  <si>
+    <t>model_Conv4_n_cli_20_ds_split_dirichlet_ds_alpha_0.3_align_ae_delta_None_init_type_default_same_init_True</t>
+  </si>
+  <si>
+    <t>model_Conv4_n_cli_20_ds_split_dirichlet_ds_alpha_0.3_align_ae_delta_None_init_type_kaiming_normal_same_init_True/Accuracy/test/max_client_test_accuracy</t>
+  </si>
+  <si>
+    <t>cifar10_20_dir_p3_ae_conv4_kaiming</t>
+  </si>
+  <si>
+    <t>85% at 273</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +184,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,9 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,32 +555,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2292B53-1D3E-0E46-9B24-D0A3A204ABAD}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="139" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -518,7 +588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -526,20 +596,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -550,7 +620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -570,7 +640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -590,7 +660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -610,7 +680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -627,7 +697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -644,7 +714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -664,7 +734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -684,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -704,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -721,7 +791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -738,7 +808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -755,7 +825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -772,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -789,7 +859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -806,7 +876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -823,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -840,7 +910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -857,7 +927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -874,7 +944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -891,7 +961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -912,4 +982,73 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
+  <dimension ref="A2:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07A6B8-EB18-844E-AE5E-E52ED67EED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1AC90-D889-8E4D-9A26-28A654FF1DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76300" yWindow="-800" windowWidth="28040" windowHeight="18200" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="1220" yWindow="740" windowWidth="28180" windowHeight="16680" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>clients</t>
   </si>
@@ -132,9 +132,6 @@
     <t>up to 70% then down to random</t>
   </si>
   <si>
-    <t>85% at 324</t>
-  </si>
-  <si>
     <t>cifar10_20_dir_p3_ae_conv4_default_init</t>
   </si>
   <si>
@@ -153,17 +150,41 @@
     <t>cifar10_20_dir_p3_ae_conv4_kaiming</t>
   </si>
   <si>
-    <t>85% at 273</t>
-  </si>
-  <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>cifar10_2_split_label_Conv4_se</t>
+  </si>
+  <si>
+    <t>cifar10_2_split_label_Conv4_pd</t>
+  </si>
+  <si>
+    <t>MNIST 20 clients iid</t>
+  </si>
+  <si>
+    <t>FedDyn</t>
+  </si>
+  <si>
+    <t>FedDC</t>
+  </si>
+  <si>
+    <t>SCAFFOLD</t>
+  </si>
+  <si>
+    <t>FedAvg</t>
+  </si>
+  <si>
+    <t>FedProx</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +232,19 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,13 +266,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,69 +1022,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="135.83203125" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="135.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>324</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>273</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" ht="23">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6">
+        <v>85</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6E93F-D593-434D-8523-FD4DE8A9D094}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1AC90-D889-8E4D-9A26-28A654FF1DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73536B2C-801B-FE4C-8862-1D31C39C807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="740" windowWidth="28180" windowHeight="16680" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>clients</t>
   </si>
@@ -126,9 +126,6 @@
     <t>config file</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>up to 70% then down to random</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>cifar10_20_dir_p3_ae_conv4_kaiming</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>cifar10_2_split_label_Conv4_se</t>
   </si>
   <si>
@@ -178,13 +172,28 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>MNIST 20 clients 0.3 Dir</t>
+  </si>
+  <si>
+    <t>CIFAR10 20 clients 0.3 Dir</t>
+  </si>
+  <si>
+    <t>cifar10_20_iid_se1_conv4</t>
+  </si>
+  <si>
+    <t>iteratinos</t>
+  </si>
+  <si>
+    <t>cifar10_20_dir_p3_ae_conv4_waf25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +242,12 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -266,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,7 +289,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
-  <dimension ref="A2:D33"/>
+  <dimension ref="A2:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1041,13 +1057,13 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -1058,15 +1074,15 @@
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>85</v>
@@ -1075,12 +1091,12 @@
         <v>324</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -1089,40 +1105,56 @@
         <v>273</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23">
-      <c r="A6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7">
         <v>85</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23">
-      <c r="A7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7">
         <v>85</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>98</v>
@@ -1133,7 +1165,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>98</v>
@@ -1144,31 +1176,101 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>98</v>
       </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>98</v>
       </c>
+      <c r="C21">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="C22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73536B2C-801B-FE4C-8862-1D31C39C807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F6E1BA-115B-BD41-BC0E-20A9F1A13D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="740" windowWidth="28180" windowHeight="16680" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t>clients</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>cifar10_20_dir_p3_ae_conv4_waf25</t>
+  </si>
+  <si>
+    <t>MNIST 20 clients 0.6 Dir</t>
+  </si>
+  <si>
+    <t>MNIST_2_20_split_label_0.300</t>
+  </si>
+  <si>
+    <t>1000+</t>
+  </si>
+  <si>
+    <t>weight align</t>
+  </si>
+  <si>
+    <t>CIFAR10 20 clients iid</t>
   </si>
 </sst>
 </file>
@@ -281,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -290,7 +305,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,17 +1058,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
-  <dimension ref="A2:D36"/>
+  <dimension ref="A2:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="135.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1059,7 +1079,7 @@
       <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
@@ -1073,7 +1093,7 @@
       <c r="B3" s="2">
         <v>85</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1087,7 +1107,7 @@
       <c r="B4" s="3">
         <v>85</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>324</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1101,7 +1121,7 @@
       <c r="B5">
         <v>85</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>273</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1115,7 +1135,7 @@
       <c r="B6" s="7">
         <v>85</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.1</v>
       </c>
     </row>
@@ -1126,7 +1146,7 @@
       <c r="B7" s="7">
         <v>85</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>0.47</v>
       </c>
     </row>
@@ -1137,7 +1157,7 @@
       <c r="B11">
         <v>85</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>14</v>
       </c>
     </row>
@@ -1159,7 +1179,7 @@
       <c r="B18">
         <v>98</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1170,7 +1190,7 @@
       <c r="B19">
         <v>98</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>33</v>
       </c>
     </row>
@@ -1181,7 +1201,7 @@
       <c r="B20">
         <v>98</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>50</v>
       </c>
     </row>
@@ -1192,7 +1212,7 @@
       <c r="B21">
         <v>98</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>46</v>
       </c>
     </row>
@@ -1203,74 +1223,317 @@
       <c r="B22">
         <v>98</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>49</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>98</v>
+      </c>
+      <c r="C26" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>98</v>
+      </c>
+      <c r="C27" s="8">
+        <v>39</v>
+      </c>
+    </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>98</v>
+      </c>
+      <c r="C28" s="8">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>98</v>
       </c>
-      <c r="C29">
-        <v>20</v>
+      <c r="C29" s="8">
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>98</v>
+      </c>
+      <c r="C30" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>98</v>
+      </c>
+      <c r="C34" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
-        <v>98</v>
-      </c>
-      <c r="C30">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B35">
+        <v>98</v>
+      </c>
+      <c r="C35" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
-        <v>98</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B36">
+        <v>98</v>
+      </c>
+      <c r="C36" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B32">
-        <v>98</v>
-      </c>
-      <c r="C32">
+      <c r="B37">
+        <v>98</v>
+      </c>
+      <c r="C37" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>98</v>
+      </c>
+      <c r="C38" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>98</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>98</v>
+      </c>
+      <c r="C43" s="8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>98</v>
+      </c>
+      <c r="C44" s="8">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>98</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>98</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>85</v>
+      </c>
+      <c r="C50" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>85</v>
+      </c>
+      <c r="C51" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>85</v>
+      </c>
+      <c r="C52" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>85</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>85</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="D56">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57">
+        <v>85</v>
+      </c>
+      <c r="C57" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58">
+        <v>85</v>
+      </c>
+      <c r="C58" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59">
+        <v>85</v>
+      </c>
+      <c r="C59" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>85</v>
+      </c>
+      <c r="C60" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>42</v>
       </c>
-      <c r="B33">
-        <v>98</v>
-      </c>
-      <c r="C33">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>46</v>
+      <c r="B61">
+        <v>85</v>
+      </c>
+      <c r="C61" s="8">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F6E1BA-115B-BD41-BC0E-20A9F1A13D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC67F1-2375-9B4F-B003-1FDCABE1DE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="740" windowWidth="28180" windowHeight="16680" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
   <si>
     <t>clients</t>
   </si>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
   <dimension ref="A2:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1150,6 +1150,17 @@
         <v>0.47</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8">
+        <v>17</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" ht="17">
       <c r="A11" s="6" t="s">
         <v>47</v>
@@ -1425,9 +1436,6 @@
       <c r="B50">
         <v>85</v>
       </c>
-      <c r="C50" s="8">
-        <v>65</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
@@ -1436,9 +1444,6 @@
       <c r="B51">
         <v>85</v>
       </c>
-      <c r="C51" s="8">
-        <v>67</v>
-      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
@@ -1447,9 +1452,6 @@
       <c r="B52">
         <v>85</v>
       </c>
-      <c r="C52" s="8">
-        <v>184</v>
-      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
@@ -1458,9 +1460,6 @@
       <c r="B53">
         <v>85</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
@@ -1468,9 +1467,6 @@
       </c>
       <c r="B54">
         <v>85</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC67F1-2375-9B4F-B003-1FDCABE1DE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E28FD1-5027-D94F-A604-CA113B9B70A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="740" windowWidth="28180" windowHeight="16680" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="81480" yWindow="-800" windowWidth="28180" windowHeight="16680" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <t>clients</t>
   </si>
@@ -202,13 +202,22 @@
   </si>
   <si>
     <t>CIFAR10 20 clients iid</t>
+  </si>
+  <si>
+    <t>cifar10_2_split_label_Conv4_default</t>
+  </si>
+  <si>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>Not that good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +284,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,6 +326,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
   <dimension ref="A2:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1086,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21">
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1169,12 +1185,26 @@
         <v>85</v>
       </c>
       <c r="C11" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17">
       <c r="A12" s="6" t="s">
         <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E28FD1-5027-D94F-A604-CA113B9B70A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A0B08-0C52-EE4C-87E4-01F7B68DDA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81480" yWindow="-800" windowWidth="28180" windowHeight="16680" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="76800" yWindow="-800" windowWidth="32860" windowHeight="21100" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="64">
   <si>
     <t>clients</t>
   </si>
@@ -195,9 +195,6 @@
     <t>MNIST_2_20_split_label_0.300</t>
   </si>
   <si>
-    <t>1000+</t>
-  </si>
-  <si>
     <t>weight align</t>
   </si>
   <si>
@@ -211,6 +208,27 @@
   </si>
   <si>
     <t>Not that good</t>
+  </si>
+  <si>
+    <t>CIFAR10 split label</t>
+  </si>
+  <si>
+    <t>CIFAR100 split label</t>
+  </si>
+  <si>
+    <t>Fashion mnist 20 dir 0.6</t>
+  </si>
+  <si>
+    <t>Fashion mnist 20 dir 0.3</t>
+  </si>
+  <si>
+    <t>Fashion mnist 20 iid</t>
+  </si>
+  <si>
+    <t>CIFAR10 20 clients 0.6 Dir</t>
+  </si>
+  <si>
+    <t>3000+</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
-  <dimension ref="A2:D61"/>
+  <dimension ref="A2:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="107" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1085,7 +1103,7 @@
     <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="28" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="135.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1193,18 +1211,18 @@
         <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B13">
-        <v>85</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1401,8 +1419,8 @@
       <c r="B42">
         <v>98</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>52</v>
+      <c r="C42" s="8">
+        <v>2800</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1413,7 +1431,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="8">
-        <v>504</v>
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1424,7 +1442,7 @@
         <v>98</v>
       </c>
       <c r="C44" s="8">
-        <v>971</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1435,7 +1453,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1446,17 +1464,17 @@
         <v>98</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1466,6 +1484,9 @@
       <c r="B50">
         <v>85</v>
       </c>
+      <c r="C50" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
@@ -1474,6 +1495,9 @@
       <c r="B51">
         <v>85</v>
       </c>
+      <c r="C51" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
@@ -1482,6 +1506,9 @@
       <c r="B52">
         <v>85</v>
       </c>
+      <c r="C52" s="8">
+        <v>31</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
@@ -1490,6 +1517,9 @@
       <c r="B53">
         <v>85</v>
       </c>
+      <c r="C53" s="8">
+        <v>46</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
@@ -1498,6 +1528,9 @@
       <c r="B54">
         <v>85</v>
       </c>
+      <c r="C54" s="8">
+        <v>42</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
@@ -1548,7 +1581,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1559,7 +1592,307 @@
         <v>85</v>
       </c>
       <c r="C61" s="8">
-        <v>126</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>89</v>
+      </c>
+      <c r="C82" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>89</v>
+      </c>
+      <c r="C83" s="8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84">
+        <v>89</v>
+      </c>
+      <c r="C84" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85">
+        <v>89</v>
+      </c>
+      <c r="C85" s="8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86">
+        <v>89</v>
+      </c>
+      <c r="C86" s="8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100">
+        <v>89</v>
+      </c>
+      <c r="C100" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101">
+        <v>89</v>
+      </c>
+      <c r="C101" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102">
+        <v>89</v>
+      </c>
+      <c r="C102" s="8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103">
+        <v>89</v>
+      </c>
+      <c r="C103" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104">
+        <v>89</v>
+      </c>
+      <c r="C104" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A0B08-0C52-EE4C-87E4-01F7B68DDA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132101E-F508-B844-9812-23145D9DD077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="76800" yWindow="-800" windowWidth="32860" windowHeight="21100" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
   <si>
     <t>clients</t>
   </si>
@@ -195,9 +195,6 @@
     <t>MNIST_2_20_split_label_0.300</t>
   </si>
   <si>
-    <t>weight align</t>
-  </si>
-  <si>
     <t>CIFAR10 20 clients iid</t>
   </si>
   <si>
@@ -229,6 +226,15 @@
   </si>
   <si>
     <t>3000+</t>
+  </si>
+  <si>
+    <t>CIFAR100 20 clients 0.6 Dir</t>
+  </si>
+  <si>
+    <t>CIFAR100 20 clients 0.3 Dir</t>
+  </si>
+  <si>
+    <t>CIFAR100 20 clients IID</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
-  <dimension ref="A2:D114"/>
+  <dimension ref="A2:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="107" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1211,18 +1217,18 @@
         <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B13">
-        <v>85</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1453,7 +1459,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1464,17 +1470,12 @@
         <v>98</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1597,10 +1598,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -1640,49 +1641,64 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>39</v>
       </c>
-      <c r="B73">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>89</v>
+      </c>
+      <c r="C74" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>40</v>
       </c>
-      <c r="B74">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>89</v>
+      </c>
+      <c r="C75" s="8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>41</v>
       </c>
-      <c r="B75">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>89</v>
+      </c>
+      <c r="C76" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>43</v>
       </c>
-      <c r="B76">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B77">
+        <v>89</v>
+      </c>
+      <c r="C77" s="8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>42</v>
       </c>
-      <c r="B77">
-        <v>85</v>
+      <c r="B78">
+        <v>89</v>
+      </c>
+      <c r="C78" s="8">
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1697,9 +1713,6 @@
       <c r="B82">
         <v>89</v>
       </c>
-      <c r="C82" s="8">
-        <v>56</v>
-      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
@@ -1708,9 +1721,6 @@
       <c r="B83">
         <v>89</v>
       </c>
-      <c r="C83" s="8">
-        <v>422</v>
-      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
@@ -1719,9 +1729,6 @@
       <c r="B84">
         <v>89</v>
       </c>
-      <c r="C84" s="8">
-        <v>369</v>
-      </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
@@ -1730,9 +1737,6 @@
       <c r="B85">
         <v>89</v>
       </c>
-      <c r="C85" s="8">
-        <v>320</v>
-      </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
@@ -1741,139 +1745,120 @@
       <c r="B86">
         <v>89</v>
       </c>
-      <c r="C86" s="8">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>39</v>
-      </c>
-      <c r="B90">
-        <v>89</v>
-      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B92">
         <v>89</v>
       </c>
+      <c r="C92" s="8">
+        <v>35</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B93">
         <v>89</v>
       </c>
+      <c r="C93" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B94">
         <v>89</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="C94" s="8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <v>89</v>
+      </c>
+      <c r="C95" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96">
+        <v>89</v>
+      </c>
+      <c r="C96" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>39</v>
       </c>
-      <c r="B100">
-        <v>89</v>
-      </c>
-      <c r="C100" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="B102">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>40</v>
       </c>
-      <c r="B101">
-        <v>89</v>
-      </c>
-      <c r="C101" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="B103">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>41</v>
       </c>
-      <c r="B102">
-        <v>89</v>
-      </c>
-      <c r="C102" s="8">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="B104">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>43</v>
       </c>
-      <c r="B103">
-        <v>89</v>
-      </c>
-      <c r="C103" s="8">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="B105">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>42</v>
       </c>
-      <c r="B104">
-        <v>89</v>
-      </c>
-      <c r="C104" s="8">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="B106">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>39</v>
-      </c>
-      <c r="B110">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>40</v>
-      </c>
-      <c r="B111">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>41</v>
       </c>
       <c r="B112">
         <v>85</v>
@@ -1881,7 +1866,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B113">
         <v>85</v>
@@ -1889,9 +1874,160 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>42</v>
       </c>
-      <c r="B114">
+      <c r="B116">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>42</v>
+      </c>
+      <c r="B140">
         <v>85</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132101E-F508-B844-9812-23145D9DD077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC743C-2A61-DF49-8386-3450647E0360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76800" yWindow="-800" windowWidth="32860" windowHeight="21100" activeTab="1" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="29460" windowHeight="18020" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
   <si>
     <t>clients</t>
   </si>
@@ -235,6 +235,60 @@
   </si>
   <si>
     <t>CIFAR100 20 clients IID</t>
+  </si>
+  <si>
+    <t>MNIST</t>
+  </si>
+  <si>
+    <t>FASHION</t>
+  </si>
+  <si>
+    <t>CIFAR10</t>
+  </si>
+  <si>
+    <t>CIFAR100</t>
+  </si>
+  <si>
+    <t>Target Acc.</t>
+  </si>
+  <si>
+    <t>Fed Avg.</t>
+  </si>
+  <si>
+    <t>Scaffold</t>
+  </si>
+  <si>
+    <t>IWA</t>
+  </si>
+  <si>
+    <t>IID, 20 peers</t>
+  </si>
+  <si>
+    <t>Dirichlet 0.6 20 peers</t>
+  </si>
+  <si>
+    <t>Dirichlet 0.3 20 peers</t>
+  </si>
+  <si>
+    <t>Dirichlet 0.3 10 peers</t>
+  </si>
+  <si>
+    <t>Split Label 5 peers</t>
+  </si>
+  <si>
+    <t>Split Label 2 peers</t>
+  </si>
+  <si>
+    <t>Dirichlet 0.5 16 peers Different Random Seeds</t>
+  </si>
+  <si>
+    <t>80.9%. (374)</t>
+  </si>
+  <si>
+    <t>81.1% (876)</t>
+  </si>
+  <si>
+    <t>81.7% (642)</t>
   </si>
 </sst>
 </file>
@@ -667,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2292B53-1D3E-0E46-9B24-D0A3A204ABAD}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -1100,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
   <dimension ref="A2:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView topLeftCell="A27" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C46" sqref="A17:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2038,12 +2092,575 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6E93F-D593-434D-8523-FD4DE8A9D094}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:16">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>148</v>
+      </c>
+      <c r="D7">
+        <v>151</v>
+      </c>
+      <c r="E7">
+        <v>165</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+      <c r="D9">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>147</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>330</v>
+      </c>
+      <c r="D12">
+        <v>320</v>
+      </c>
+      <c r="E12">
+        <v>369</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>422</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>244</v>
+      </c>
+      <c r="D14">
+        <v>242</v>
+      </c>
+      <c r="E14">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <v>110</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>139</v>
+      </c>
+      <c r="D16">
+        <v>199</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>793</v>
+      </c>
+      <c r="D17">
+        <v>696</v>
+      </c>
+      <c r="E17">
+        <v>642</v>
+      </c>
+      <c r="F17">
+        <v>105</v>
+      </c>
+      <c r="G17">
+        <v>976</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>133</v>
+      </c>
+      <c r="D18">
+        <v>144</v>
+      </c>
+      <c r="E18">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>265</v>
+      </c>
+      <c r="D19">
+        <v>265</v>
+      </c>
+      <c r="E19">
+        <v>110</v>
+      </c>
+      <c r="F19">
+        <v>119</v>
+      </c>
+      <c r="G19">
+        <v>118</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="L19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>111</v>
+      </c>
+      <c r="D21">
+        <v>97</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>89</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="N22" s="1"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>98</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="L26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28">
+        <v>85</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29">
+        <v>55</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="N30" s="1"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>1052</v>
+      </c>
+      <c r="F31">
+        <v>2800</v>
+      </c>
+      <c r="G31">
+        <v>680</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32">
+        <v>89</v>
+      </c>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>263</v>
+      </c>
+      <c r="D34">
+        <v>260</v>
+      </c>
+      <c r="E34">
+        <v>126</v>
+      </c>
+      <c r="F34">
+        <v>263</v>
+      </c>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC743C-2A61-DF49-8386-3450647E0360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5298960-88DA-3047-80BA-5C220673D0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="29460" windowHeight="18020" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="75260" yWindow="380" windowWidth="29460" windowHeight="18020" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,12 +369,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +417,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2094,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6E93F-D593-434D-8523-FD4DE8A9D094}">
   <dimension ref="A4:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2226,7 +2241,10 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="G9" s="13">
+        <v>62</v>
       </c>
       <c r="L9" s="8"/>
       <c r="P9" s="8"/>
@@ -2485,6 +2503,11 @@
       <c r="B22">
         <v>89</v>
       </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="L22" s="8"/>
       <c r="N22" s="1"/>
       <c r="P22" s="8"/>
@@ -2508,6 +2531,7 @@
       <c r="F23">
         <v>25</v>
       </c>
+      <c r="G23" s="11"/>
       <c r="L23" s="8"/>
       <c r="P23" s="8"/>
     </row>
@@ -2518,6 +2542,11 @@
       <c r="B24">
         <v>55</v>
       </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
       <c r="L24" s="8"/>
       <c r="P24" s="8"/>
     </row>
@@ -2608,6 +2637,11 @@
       <c r="B32">
         <v>89</v>
       </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
       <c r="P32" s="8"/>
     </row>
     <row r="33" spans="1:16">
@@ -2617,6 +2651,8 @@
       <c r="B33">
         <v>85</v>
       </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" t="s">
         <v>83</v>
       </c>
@@ -2647,6 +2683,7 @@
       <c r="F34">
         <v>263</v>
       </c>
+      <c r="G34" s="11"/>
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="1:16">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5298960-88DA-3047-80BA-5C220673D0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DDDCE9-A721-834E-A7B1-C510D3640F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75260" yWindow="380" windowWidth="29460" windowHeight="18020" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="80500" yWindow="-760" windowWidth="29460" windowHeight="18020" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="86">
   <si>
     <t>clients</t>
   </si>
@@ -289,13 +290,19 @@
   </si>
   <si>
     <t>81.7% (642)</t>
+  </si>
+  <si>
+    <t>80.4% (688)</t>
+  </si>
+  <si>
+    <t>81.34% (646)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,8 +375,15 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,12 +393,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,8 +426,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
   <dimension ref="A2:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C46" sqref="A17:C46"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1195,7 +1202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20">
+    <row r="3" spans="1:4" ht="21">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2117,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2221,6 +2228,9 @@
       <c r="G8">
         <v>20</v>
       </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="P8" s="8"/>
     </row>
@@ -2243,7 +2253,7 @@
       <c r="F9">
         <v>75</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9">
         <v>62</v>
       </c>
       <c r="L9" s="8"/>
@@ -2503,11 +2513,6 @@
       <c r="B22">
         <v>89</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
       <c r="L22" s="8"/>
       <c r="N22" s="1"/>
       <c r="P22" s="8"/>
@@ -2542,11 +2547,21 @@
       <c r="B24">
         <v>55</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="C24">
+        <v>284</v>
+      </c>
+      <c r="D24">
+        <v>506</v>
+      </c>
+      <c r="E24">
+        <v>264</v>
+      </c>
+      <c r="F24">
+        <v>264</v>
+      </c>
+      <c r="G24">
+        <v>320</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="P24" s="8"/>
     </row>
@@ -2630,18 +2645,28 @@
       <c r="L31" s="8"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="29">
       <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B32">
-        <v>89</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="B32" s="12">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>1868</v>
+      </c>
+      <c r="D32">
+        <v>1637</v>
+      </c>
+      <c r="E32">
+        <v>996</v>
+      </c>
+      <c r="F32">
+        <v>2257</v>
+      </c>
+      <c r="G32">
+        <v>689</v>
+      </c>
       <c r="P32" s="8"/>
     </row>
     <row r="33" spans="1:16">
@@ -2651,8 +2676,12 @@
       <c r="B33">
         <v>85</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
       <c r="E33" t="s">
         <v>83</v>
       </c>
@@ -2683,7 +2712,9 @@
       <c r="F34">
         <v>263</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34">
+        <v>587</v>
+      </c>
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="1:16">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DDDCE9-A721-834E-A7B1-C510D3640F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A167E89-6DE7-3946-94DF-1A2B67BE3B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80500" yWindow="-760" windowWidth="29460" windowHeight="18020" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -1176,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0227F1E-B170-A546-A7F0-3414CD9BAABC}">
   <dimension ref="A2:D140"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="107" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
@@ -2117,7 +2117,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2396,6 +2396,9 @@
       <c r="G16">
         <v>39</v>
       </c>
+      <c r="H16">
+        <v>51</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -2446,6 +2449,9 @@
       <c r="G18">
         <v>29</v>
       </c>
+      <c r="H18">
+        <v>273</v>
+      </c>
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16">
@@ -2641,6 +2647,9 @@
       </c>
       <c r="G31">
         <v>680</v>
+      </c>
+      <c r="H31">
+        <v>135</v>
       </c>
       <c r="L31" s="8"/>
       <c r="P31" s="8"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/iterative_weight_alignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A167E89-6DE7-3946-94DF-1A2B67BE3B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EF6F17-0968-8E44-9539-A65C500C2970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80500" yWindow="-760" windowWidth="29460" windowHeight="18020" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -383,18 +382,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -425,8 +418,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2117,7 +2110,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2176,6 +2169,9 @@
       <c r="G6">
         <v>33</v>
       </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2203,6 +2199,9 @@
       <c r="G7">
         <v>100</v>
       </c>
+      <c r="H7">
+        <v>27</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="P7" s="8"/>
     </row>
@@ -2288,6 +2287,9 @@
       <c r="G11">
         <v>35</v>
       </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16">
@@ -2310,7 +2312,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>422</v>
+        <v>320</v>
       </c>
       <c r="L12" s="8"/>
       <c r="P12" s="8"/>
@@ -2393,11 +2395,11 @@
       <c r="F16">
         <v>45</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <v>39</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="L16" s="8"/>
       <c r="P16" s="8"/>
@@ -2421,7 +2423,7 @@
       <c r="F17">
         <v>105</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>976</v>
       </c>
       <c r="L17" s="8"/>
@@ -2446,7 +2448,7 @@
       <c r="F18">
         <v>28</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>29</v>
       </c>
       <c r="H18">
@@ -2473,7 +2475,7 @@
       <c r="F19">
         <v>119</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>118</v>
       </c>
       <c r="J19" s="1"/>
@@ -2484,6 +2486,7 @@
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="G20" s="12"/>
       <c r="L20" s="8"/>
       <c r="P20" s="8"/>
     </row>
@@ -2506,7 +2509,7 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
         <v>50</v>
       </c>
       <c r="L21" s="8"/>
@@ -2519,6 +2522,7 @@
       <c r="B22">
         <v>89</v>
       </c>
+      <c r="G22" s="12"/>
       <c r="L22" s="8"/>
       <c r="N22" s="1"/>
       <c r="P22" s="8"/>
@@ -2542,7 +2546,7 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="12"/>
       <c r="L23" s="8"/>
       <c r="P23" s="8"/>
     </row>
@@ -2565,8 +2569,8 @@
       <c r="F24">
         <v>264</v>
       </c>
-      <c r="G24">
-        <v>320</v>
+      <c r="G24" s="12">
+        <v>125</v>
       </c>
       <c r="L24" s="8"/>
       <c r="P24" s="8"/>
@@ -2575,6 +2579,7 @@
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="G25" s="12"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16">
@@ -2584,6 +2589,7 @@
       <c r="B26">
         <v>98</v>
       </c>
+      <c r="G26" s="12"/>
       <c r="J26" s="1"/>
       <c r="L26" s="8"/>
       <c r="P26" s="8"/>
@@ -2595,6 +2601,7 @@
       <c r="B27">
         <v>89</v>
       </c>
+      <c r="G27" s="12"/>
       <c r="L27" s="8"/>
       <c r="P27" s="8"/>
     </row>
@@ -2605,6 +2612,7 @@
       <c r="B28">
         <v>85</v>
       </c>
+      <c r="G28" s="12"/>
       <c r="L28" s="8"/>
       <c r="P28" s="8"/>
     </row>
@@ -2649,7 +2657,7 @@
         <v>680</v>
       </c>
       <c r="H31">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="L31" s="8"/>
       <c r="P31" s="8"/>
@@ -2658,7 +2666,7 @@
       <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>87</v>
       </c>
       <c r="C32">
@@ -2675,6 +2683,9 @@
       </c>
       <c r="G32">
         <v>689</v>
+      </c>
+      <c r="H32">
+        <v>330</v>
       </c>
       <c r="P32" s="8"/>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EF6F17-0968-8E44-9539-A65C500C2970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459EB8C-F586-5044-BFEB-64D97E9CBB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -2110,7 +2110,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2200,7 +2200,10 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
       </c>
       <c r="L7" s="8"/>
       <c r="P7" s="8"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459EB8C-F586-5044-BFEB-64D97E9CBB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D2DA97-69A7-3247-BFB8-97D6274CE3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="88">
   <si>
     <t>clients</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>81.34% (646)</t>
+  </si>
+  <si>
+    <t>166 (87%)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,7 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2110,7 +2115,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2293,6 +2298,9 @@
       <c r="H11">
         <v>20</v>
       </c>
+      <c r="M11" t="s">
+        <v>87</v>
+      </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16">
@@ -2334,7 +2342,7 @@
         <v>65</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>22</v>
@@ -2398,7 +2406,7 @@
       <c r="F16">
         <v>45</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16">
         <v>39</v>
       </c>
       <c r="H16">
@@ -2426,8 +2434,11 @@
       <c r="F17">
         <v>105</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17">
         <v>976</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
       </c>
       <c r="L17" s="8"/>
       <c r="P17" s="8"/>
@@ -2451,7 +2462,7 @@
       <c r="F18">
         <v>28</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18">
         <v>29</v>
       </c>
       <c r="H18">
@@ -2478,7 +2489,7 @@
       <c r="F19">
         <v>119</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19">
         <v>118</v>
       </c>
       <c r="J19" s="1"/>
@@ -2489,7 +2500,6 @@
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="12"/>
       <c r="L20" s="8"/>
       <c r="P20" s="8"/>
     </row>
@@ -2512,7 +2522,7 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21">
         <v>50</v>
       </c>
       <c r="L21" s="8"/>
@@ -2525,7 +2535,6 @@
       <c r="B22">
         <v>89</v>
       </c>
-      <c r="G22" s="12"/>
       <c r="L22" s="8"/>
       <c r="N22" s="1"/>
       <c r="P22" s="8"/>
@@ -2549,7 +2558,6 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23" s="12"/>
       <c r="L23" s="8"/>
       <c r="P23" s="8"/>
     </row>
@@ -2572,7 +2580,7 @@
       <c r="F24">
         <v>264</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24">
         <v>125</v>
       </c>
       <c r="L24" s="8"/>
@@ -2582,7 +2590,6 @@
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="12"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16">
@@ -2592,7 +2599,6 @@
       <c r="B26">
         <v>98</v>
       </c>
-      <c r="G26" s="12"/>
       <c r="J26" s="1"/>
       <c r="L26" s="8"/>
       <c r="P26" s="8"/>
@@ -2604,7 +2610,6 @@
       <c r="B27">
         <v>89</v>
       </c>
-      <c r="G27" s="12"/>
       <c r="L27" s="8"/>
       <c r="P27" s="8"/>
     </row>
@@ -2615,7 +2620,6 @@
       <c r="B28">
         <v>85</v>
       </c>
-      <c r="G28" s="12"/>
       <c r="L28" s="8"/>
       <c r="P28" s="8"/>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D2DA97-69A7-3247-BFB8-97D6274CE3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3EC96-BFC3-8F48-AA48-FA4B32F6359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t>clients</t>
   </si>
@@ -298,9 +299,6 @@
   </si>
   <si>
     <t>166 (87%)</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2113,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2298,9 +2296,6 @@
       <c r="H11">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16">
@@ -2349,6 +2344,9 @@
       </c>
       <c r="G13">
         <v>24</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
       </c>
       <c r="L13" s="8"/>
       <c r="P13" s="8"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3EC96-BFC3-8F48-AA48-FA4B32F6359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA4D7F-8A47-B842-BB5B-D9A8373CA23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -2113,7 +2113,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA4D7F-8A47-B842-BB5B-D9A8373CA23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40ABD5-552B-004C-AF85-10906E5422F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -2113,7 +2113,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40ABD5-552B-004C-AF85-10906E5422F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E3F0BD-3F49-C44C-9168-416E77548A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -2113,7 +2113,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2464,7 +2464,7 @@
         <v>29</v>
       </c>
       <c r="H18">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="P18" s="8"/>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E3F0BD-3F49-C44C-9168-416E77548A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2F54B2-C6AE-DD4F-88D3-F1228D29EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="77">
   <si>
     <t>clients</t>
   </si>
@@ -269,43 +269,13 @@
   </si>
   <si>
     <t>Dirichlet 0.3 20 peers</t>
-  </si>
-  <si>
-    <t>Dirichlet 0.3 10 peers</t>
-  </si>
-  <si>
-    <t>Split Label 5 peers</t>
-  </si>
-  <si>
-    <t>Split Label 2 peers</t>
-  </si>
-  <si>
-    <t>Dirichlet 0.5 16 peers Different Random Seeds</t>
-  </si>
-  <si>
-    <t>80.9%. (374)</t>
-  </si>
-  <si>
-    <t>81.1% (876)</t>
-  </si>
-  <si>
-    <t>81.7% (642)</t>
-  </si>
-  <si>
-    <t>80.4% (688)</t>
-  </si>
-  <si>
-    <t>81.34% (646)</t>
-  </si>
-  <si>
-    <t>166 (87%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,13 +348,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -406,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,7 +385,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2110,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6E93F-D593-434D-8523-FD4DE8A9D094}">
-  <dimension ref="A4:P36"/>
+  <dimension ref="A4:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2205,9 +2167,6 @@
       <c r="H7">
         <v>12</v>
       </c>
-      <c r="I7">
-        <v>17</v>
-      </c>
       <c r="L7" s="8"/>
       <c r="P7" s="8"/>
     </row>
@@ -2244,22 +2203,10 @@
         <v>69</v>
       </c>
       <c r="B9">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <v>140</v>
-      </c>
-      <c r="D9">
-        <v>140</v>
-      </c>
-      <c r="E9">
-        <v>84</v>
-      </c>
-      <c r="F9">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
       </c>
       <c r="L9" s="8"/>
       <c r="P9" s="8"/>
@@ -2294,7 +2241,7 @@
         <v>35</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P11" s="8"/>
     </row>
@@ -2303,22 +2250,7 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>89</v>
-      </c>
-      <c r="C12">
-        <v>330</v>
-      </c>
-      <c r="D12">
-        <v>320</v>
-      </c>
-      <c r="E12">
-        <v>369</v>
-      </c>
-      <c r="F12">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="L12" s="8"/>
       <c r="P12" s="8"/>
@@ -2356,22 +2288,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <v>244</v>
-      </c>
-      <c r="D14">
-        <v>242</v>
-      </c>
-      <c r="E14">
-        <v>87</v>
-      </c>
-      <c r="F14">
-        <v>110</v>
-      </c>
-      <c r="G14">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="L14" s="8"/>
       <c r="N14" s="1"/>
@@ -2418,25 +2335,7 @@
         <v>67</v>
       </c>
       <c r="B17">
-        <v>89</v>
-      </c>
-      <c r="C17">
-        <v>793</v>
-      </c>
-      <c r="D17">
-        <v>696</v>
-      </c>
-      <c r="E17">
-        <v>642</v>
-      </c>
-      <c r="F17">
-        <v>105</v>
-      </c>
-      <c r="G17">
-        <v>976</v>
-      </c>
-      <c r="K17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="8"/>
       <c r="P17" s="8"/>
@@ -2473,285 +2372,11 @@
         <v>69</v>
       </c>
       <c r="B19">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>265</v>
-      </c>
-      <c r="D19">
-        <v>265</v>
-      </c>
-      <c r="E19">
-        <v>110</v>
-      </c>
-      <c r="F19">
-        <v>119</v>
-      </c>
-      <c r="G19">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1"/>
       <c r="L19" s="8"/>
       <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21">
-        <v>98</v>
-      </c>
-      <c r="C21">
-        <v>111</v>
-      </c>
-      <c r="D21">
-        <v>97</v>
-      </c>
-      <c r="E21">
-        <v>40</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22">
-        <v>89</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="N22" s="1"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23">
-        <v>85</v>
-      </c>
-      <c r="C23">
-        <v>95</v>
-      </c>
-      <c r="D23">
-        <v>81</v>
-      </c>
-      <c r="E23">
-        <v>33</v>
-      </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24">
-        <v>55</v>
-      </c>
-      <c r="C24">
-        <v>284</v>
-      </c>
-      <c r="D24">
-        <v>506</v>
-      </c>
-      <c r="E24">
-        <v>264</v>
-      </c>
-      <c r="F24">
-        <v>264</v>
-      </c>
-      <c r="G24">
-        <v>125</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26">
-        <v>98</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="L26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27">
-        <v>89</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28">
-        <v>85</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29">
-        <v>55</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="N30" s="1"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31">
-        <v>98</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31">
-        <v>1052</v>
-      </c>
-      <c r="F31">
-        <v>2800</v>
-      </c>
-      <c r="G31">
-        <v>680</v>
-      </c>
-      <c r="H31">
-        <v>75</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" ht="29">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="11">
-        <v>87</v>
-      </c>
-      <c r="C32">
-        <v>1868</v>
-      </c>
-      <c r="D32">
-        <v>1637</v>
-      </c>
-      <c r="E32">
-        <v>996</v>
-      </c>
-      <c r="F32">
-        <v>2257</v>
-      </c>
-      <c r="G32">
-        <v>689</v>
-      </c>
-      <c r="H32">
-        <v>330</v>
-      </c>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34">
-        <v>55</v>
-      </c>
-      <c r="C34">
-        <v>263</v>
-      </c>
-      <c r="D34">
-        <v>260</v>
-      </c>
-      <c r="E34">
-        <v>126</v>
-      </c>
-      <c r="F34">
-        <v>263</v>
-      </c>
-      <c r="G34">
-        <v>587</v>
-      </c>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2F54B2-C6AE-DD4F-88D3-F1228D29EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3ABEC-4DE9-254F-8E96-94133BB71D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="3900" yWindow="740" windowWidth="25500" windowHeight="16680" activeTab="3" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
   <si>
     <t>clients</t>
   </si>
@@ -349,12 +350,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -369,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,6 +392,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2074,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6E93F-D593-434D-8523-FD4DE8A9D094}">
   <dimension ref="A4:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="H19" sqref="A4:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2205,6 +2213,21 @@
       <c r="B9">
         <v>50</v>
       </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
+      </c>
       <c r="H9">
         <v>8</v>
       </c>
@@ -2252,6 +2275,24 @@
       <c r="B12">
         <v>87</v>
       </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="P12" s="8"/>
     </row>
@@ -2289,6 +2330,21 @@
       </c>
       <c r="B14">
         <v>50</v>
+      </c>
+      <c r="C14">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>55</v>
       </c>
       <c r="L14" s="8"/>
       <c r="N14" s="1"/>
@@ -2337,6 +2393,24 @@
       <c r="B17">
         <v>87</v>
       </c>
+      <c r="C17">
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <v>93</v>
+      </c>
+      <c r="E17">
+        <v>92</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>93</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="P17" s="8"/>
     </row>
@@ -2362,8 +2436,8 @@
       <c r="G18">
         <v>29</v>
       </c>
-      <c r="H18">
-        <v>223</v>
+      <c r="H18" s="11">
+        <v>190</v>
       </c>
       <c r="P18" s="8"/>
     </row>
@@ -2374,9 +2448,383 @@
       <c r="B19">
         <v>50</v>
       </c>
+      <c r="C19">
+        <v>111</v>
+      </c>
+      <c r="D19">
+        <v>110</v>
+      </c>
+      <c r="E19">
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <v>74</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="L19" s="8"/>
       <c r="P19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DC0B8-A539-874C-8FD2-572C15B3F7DA}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>148</v>
+      </c>
+      <c r="D4">
+        <v>151</v>
+      </c>
+      <c r="E4">
+        <v>165</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <v>140</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>139</v>
+      </c>
+      <c r="D13">
+        <v>199</v>
+      </c>
+      <c r="E13">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>92</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>144</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>111</v>
+      </c>
+      <c r="D16">
+        <v>110</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>74</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3ABEC-4DE9-254F-8E96-94133BB71D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD49F17-57F3-CD48-9174-9E836FD72F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="740" windowWidth="25500" windowHeight="16680" activeTab="3" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="79">
   <si>
     <t>clients</t>
   </si>
@@ -270,13 +270,19 @@
   </si>
   <si>
     <t>Dirichlet 0.3 20 peers</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>&amp;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +355,14 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -373,10 +387,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,8 +408,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2474,359 +2491,675 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DC0B8-A539-874C-8FD2-572C15B3F7DA}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16">
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
         <v>98</v>
       </c>
-      <c r="C3">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
         <v>49</v>
       </c>
-      <c r="D3">
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
         <v>46</v>
       </c>
-      <c r="E3">
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3">
         <v>33</v>
       </c>
-      <c r="H3">
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="P3" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
         <v>89</v>
       </c>
-      <c r="C4">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
         <v>148</v>
       </c>
-      <c r="D4">
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
         <v>151</v>
       </c>
-      <c r="E4">
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
         <v>165</v>
       </c>
-      <c r="F4">
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4">
         <v>35</v>
       </c>
-      <c r="G4">
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="P4" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5">
-        <v>85</v>
+      <c r="B5" t="s">
+        <v>78</v>
       </c>
       <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
         <v>42</v>
       </c>
-      <c r="D5">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5">
         <v>46</v>
       </c>
-      <c r="E5">
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
         <v>31</v>
       </c>
-      <c r="F5">
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="P5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
         <v>82</v>
       </c>
-      <c r="D6">
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
         <v>84</v>
       </c>
-      <c r="E6">
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
         <v>43</v>
       </c>
-      <c r="F6">
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6">
         <v>43</v>
       </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="P7" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
         <v>98</v>
       </c>
-      <c r="C8">
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
         <v>147</v>
       </c>
-      <c r="D8">
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
         <v>140</v>
       </c>
-      <c r="E8">
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
         <v>52</v>
       </c>
-      <c r="F8">
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8">
         <v>35</v>
       </c>
-      <c r="H8">
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="P8" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
         <v>87</v>
       </c>
-      <c r="C9">
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
         <v>60</v>
       </c>
-      <c r="D9">
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9">
         <v>67</v>
       </c>
-      <c r="E9">
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9">
         <v>62</v>
       </c>
-      <c r="F9">
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9">
         <v>15</v>
       </c>
-      <c r="G9">
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="H9">
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="P9" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10">
-        <v>85</v>
+      <c r="B10" t="s">
+        <v>78</v>
       </c>
       <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10">
         <v>64</v>
       </c>
-      <c r="D10">
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
         <v>65</v>
       </c>
-      <c r="E10">
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10">
         <v>44</v>
       </c>
-      <c r="F10">
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="P10" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="C11">
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
         <v>105</v>
       </c>
-      <c r="E11">
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11">
         <v>56</v>
       </c>
-      <c r="F11">
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11">
         <v>61</v>
       </c>
-      <c r="G11">
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="P12" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>66</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
         <v>98</v>
       </c>
-      <c r="C13">
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13">
         <v>139</v>
       </c>
-      <c r="D13">
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
         <v>199</v>
       </c>
-      <c r="E13">
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
         <v>57</v>
       </c>
-      <c r="F13">
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13">
         <v>45</v>
       </c>
-      <c r="G13">
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13">
         <v>39</v>
       </c>
-      <c r="H13">
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="P13" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
         <v>87</v>
       </c>
-      <c r="C14">
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14">
         <v>98</v>
       </c>
-      <c r="D14">
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14">
         <v>93</v>
       </c>
-      <c r="E14">
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14">
         <v>92</v>
       </c>
-      <c r="F14">
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14">
         <v>25</v>
       </c>
-      <c r="G14">
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14">
         <v>50</v>
       </c>
-      <c r="H14">
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="P14" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15">
-        <v>85</v>
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
       <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15">
         <v>133</v>
       </c>
-      <c r="D15">
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15">
         <v>144</v>
       </c>
-      <c r="E15">
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15">
         <v>58</v>
       </c>
-      <c r="F15">
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15">
         <v>28</v>
       </c>
-      <c r="G15">
+      <c r="L15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15">
         <v>29</v>
       </c>
-      <c r="H15" s="11">
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="11">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="P15" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>69</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16">
         <v>50</v>
       </c>
-      <c r="C16">
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16">
         <v>111</v>
       </c>
-      <c r="D16">
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16">
         <v>110</v>
       </c>
-      <c r="E16">
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16">
         <v>64</v>
       </c>
-      <c r="F16">
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16">
         <v>74</v>
       </c>
-      <c r="G16">
+      <c r="L16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16">
         <v>55</v>
       </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{2D0C21D4-D75F-8B4C-8AEF-81F42BDFE14A}"/>
+    <hyperlink ref="P4:P16" r:id="rId2" display="\\" xr:uid="{F7B1304F-113E-1D42-A567-0948667C4A24}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD49F17-57F3-CD48-9174-9E836FD72F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867ACD7C-6CED-804A-880D-44FD351A86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="740" windowWidth="25500" windowHeight="16680" activeTab="3" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="8300" yWindow="900" windowWidth="21100" windowHeight="16520" activeTab="4" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="88">
   <si>
     <t>clients</t>
   </si>
@@ -276,6 +278,33 @@
   </si>
   <si>
     <t>&amp;</t>
+  </si>
+  <si>
+    <t>q-FFL</t>
+  </si>
+  <si>
+    <t>CFFL</t>
+  </si>
+  <si>
+    <t>ECI</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>cla</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>Theirs (B=1</t>
+  </si>
+  <si>
+    <t>Theirs (B=2)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +436,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1185,7 +1214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21">
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2493,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DC0B8-A539-874C-8FD2-572C15B3F7DA}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3156,10 +3185,179 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{2D0C21D4-D75F-8B4C-8AEF-81F42BDFE14A}"/>
-    <hyperlink ref="P4:P16" r:id="rId2" display="\\" xr:uid="{F7B1304F-113E-1D42-A567-0948667C4A24}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09D1E10-DDC4-DA4C-B963-9DC76364CCD8}">
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>-32.58</v>
+      </c>
+      <c r="C4">
+        <v>40.83</v>
+      </c>
+      <c r="D4">
+        <v>97.48</v>
+      </c>
+      <c r="E4">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>38.71</v>
+      </c>
+      <c r="C5">
+        <v>48.07</v>
+      </c>
+      <c r="D5">
+        <v>51.33</v>
+      </c>
+      <c r="E5">
+        <v>94.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>94.7</v>
+      </c>
+      <c r="C6">
+        <v>85.71</v>
+      </c>
+      <c r="D6">
+        <v>72.55</v>
+      </c>
+      <c r="E6">
+        <v>81.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>99.41</v>
+      </c>
+      <c r="C7">
+        <v>95.21</v>
+      </c>
+      <c r="D7">
+        <v>79.5</v>
+      </c>
+      <c r="E7">
+        <v>99.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>99.63</v>
+      </c>
+      <c r="C8">
+        <v>35.21</v>
+      </c>
+      <c r="D8">
+        <v>91.97</v>
+      </c>
+      <c r="E8">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>25.47</v>
+      </c>
+      <c r="C9">
+        <v>95.86</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>90.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>96.39</v>
+      </c>
+      <c r="C10">
+        <v>97.23</v>
+      </c>
+      <c r="D10">
+        <v>98.78</v>
+      </c>
+      <c r="E10">
+        <v>99.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>91.33</v>
+      </c>
+      <c r="C11">
+        <v>94.32</v>
+      </c>
+      <c r="D11">
+        <v>88.78</v>
+      </c>
+      <c r="E11">
+        <v>93.39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/projects/iterative_weight_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867ACD7C-6CED-804A-880D-44FD351A86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5853E361-BF8B-B447-987C-01654337BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="900" windowWidth="21100" windowHeight="16520" activeTab="4" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
+    <workbookView xWindow="5140" yWindow="900" windowWidth="21100" windowHeight="16520" activeTab="4" xr2:uid="{594364FA-10F3-764D-A9C9-CB98B77E52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="88">
   <si>
     <t>clients</t>
   </si>
@@ -3191,170 +3191,293 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09D1E10-DDC4-DA4C-B963-9DC76364CCD8}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
+    <row r="2" spans="1:10">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
         <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
         <v>-32.58</v>
       </c>
-      <c r="C4">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
         <v>40.83</v>
       </c>
-      <c r="D4">
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
         <v>97.48</v>
       </c>
-      <c r="E4">
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
         <v>98.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="J4" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
         <v>38.71</v>
       </c>
-      <c r="C5">
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
         <v>48.07</v>
       </c>
-      <c r="D5">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5">
         <v>51.33</v>
       </c>
-      <c r="E5">
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
         <v>94.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="J5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>80</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
         <v>94.7</v>
       </c>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
         <v>85.71</v>
       </c>
-      <c r="D6">
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
         <v>72.55</v>
       </c>
-      <c r="E6">
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
         <v>81.31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="J6" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
         <v>99.41</v>
       </c>
-      <c r="C7">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7">
         <v>95.21</v>
       </c>
-      <c r="D7">
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7">
         <v>79.5</v>
       </c>
-      <c r="E7">
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
         <v>99.55</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="J7" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>82</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
         <v>99.63</v>
       </c>
-      <c r="C8">
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
         <v>35.21</v>
       </c>
-      <c r="D8">
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
         <v>91.97</v>
       </c>
-      <c r="E8">
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
         <v>45.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="J8" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
         <v>25.47</v>
       </c>
-      <c r="C9">
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
         <v>95.86</v>
       </c>
-      <c r="D9">
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9">
         <v>0.7</v>
       </c>
-      <c r="E9">
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9">
         <v>90.67</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="J9" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
         <v>96.39</v>
       </c>
-      <c r="C10">
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10">
         <v>97.23</v>
       </c>
-      <c r="D10">
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
         <v>98.78</v>
       </c>
-      <c r="E10">
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10">
         <v>99.89</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="J10" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
         <v>91.33</v>
       </c>
-      <c r="C11">
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11">
         <v>94.32</v>
       </c>
-      <c r="D11">
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
         <v>88.78</v>
       </c>
-      <c r="E11">
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11">
         <v>93.39</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
